--- a/timetabling_GA/results/HK2_CT02_2025/TKB_Hoc_Ky.xlsx
+++ b/timetabling_GA/results/HK2_CT02_2025/TKB_Hoc_Ky.xlsx
@@ -70,7 +70,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -87,6 +87,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFCCCB"/>
         <bgColor rgb="00FFCCCB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -149,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -173,6 +179,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -541,6 +550,217 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM CÔNG NGHỆ PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu III, Đại học Cần Thơ - 01 Lý Tự Trọng, TP. Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>THỜI KHÓA BIỂU TUẦN 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Slot Thời Gian</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Lớp</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>SL SV</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Thứ 2
+01/12</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Thứ 3
+02/12</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Thứ 4
+03/12</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thứ 5
+04/12</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Thứ 6
+05/12</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Thứ 7
+06/12</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Chủ Nhật
+07/12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="7" t="n"/>
+      <c r="H8" s="7" t="n"/>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="8" t="inlineStr">
+        <is>
+          <t>MH012
+(Thực hành)
+Phòng: TH3
+GV: GV005</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
+      <c r="G9" s="7" t="n"/>
+      <c r="H9" s="7" t="n"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT4
+GV: GV005</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Thực hành)
+Phòng: TH3
+GV: GV003</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="n"/>
+      <c r="J10" s="7" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -585,7 +805,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>THỜI KHÓA BIỂU TUẦN 1</t>
+          <t>THỜI KHÓA BIỂU TUẦN 10</t>
         </is>
       </c>
     </row>
@@ -608,50 +828,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Thứ 2
-01/12</t>
+02/02</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Thứ 3
-02/12</t>
+03/02</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Thứ 4
-03/12</t>
+04/02</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thứ 5
-04/12</t>
+05/02</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Thứ 6
-05/12</t>
+06/02</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Thứ 7
-06/12</t>
+07/02</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Chủ Nhật
-07/12</t>
+08/02</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -664,21 +884,25 @@
       </c>
       <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -688,31 +912,24 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH1
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -727,23 +944,19 @@
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="n"/>
+      <c r="H10" s="7" t="n"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT4
+GV: GV005</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -754,38 +967,38 @@
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT2
+GV: GV003</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="n"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT3
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,7 +1042,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>THỜI KHÓA BIỂU TUẦN 10</t>
+          <t>THỜI KHÓA BIỂU TUẦN 11</t>
         </is>
       </c>
     </row>
@@ -852,50 +1065,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Thứ 2
-02/02</t>
+09/02</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Thứ 3
-03/02</t>
+10/02</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Thứ 4
-04/02</t>
+11/02</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thứ 5
-05/02</t>
+12/02</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Thứ 6
-06/02</t>
+13/02</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Thứ 7
-07/02</t>
+14/02</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Chủ Nhật
-08/02</t>
+15/02</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -908,21 +1121,25 @@
       </c>
       <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -932,31 +1149,24 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH1
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -967,30 +1177,26 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT4
+GV: GV005</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -998,12 +1204,12 @@
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
 Phòng: LT2
-GV: GV005</t>
+GV: GV003</t>
         </is>
       </c>
       <c r="G11" s="7" t="n"/>
@@ -1011,109 +1217,25 @@
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,7 +1279,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>THỜI KHÓA BIỂU TUẦN 11</t>
+          <t>THỜI KHÓA BIỂU TUẦN 12</t>
         </is>
       </c>
     </row>
@@ -1180,50 +1302,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Thứ 2
-09/02</t>
+16/02</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Thứ 3
-10/02</t>
+17/02</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Thứ 4
-11/02</t>
+18/02</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thứ 5
-12/02</t>
+19/02</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Thứ 6
-13/02</t>
+20/02</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Thứ 7
-14/02</t>
+21/02</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Chủ Nhật
-15/02</t>
+22/02</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1236,21 +1358,25 @@
       </c>
       <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -1260,31 +1386,24 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH1
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1295,30 +1414,26 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT4
+GV: GV005</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -1326,12 +1441,12 @@
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
 Phòng: LT2
-GV: GV005</t>
+GV: GV003</t>
         </is>
       </c>
       <c r="G11" s="7" t="n"/>
@@ -1339,109 +1454,25 @@
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1516,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>THỜI KHÓA BIỂU TUẦN 12</t>
+          <t>THỜI KHÓA BIỂU TUẦN 13</t>
         </is>
       </c>
     </row>
@@ -1508,50 +1539,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Thứ 2
-16/02</t>
+23/02</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Thứ 3
-17/02</t>
+24/02</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Thứ 4
-18/02</t>
+25/02</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thứ 5
-19/02</t>
+26/02</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Thứ 6
-20/02</t>
+27/02</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Thứ 7
-21/02</t>
+28/02</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Chủ Nhật
-22/02</t>
+01/03</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1564,21 +1595,25 @@
       </c>
       <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -1588,31 +1623,24 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH1
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1623,30 +1651,26 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT4
+GV: GV005</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -1654,12 +1678,12 @@
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
 Phòng: LT2
-GV: GV005</t>
+GV: GV003</t>
         </is>
       </c>
       <c r="G11" s="7" t="n"/>
@@ -1667,109 +1691,25 @@
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1813,7 +1753,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>THỜI KHÓA BIỂU TUẦN 13</t>
+          <t>THỜI KHÓA BIỂU TUẦN 14</t>
         </is>
       </c>
     </row>
@@ -1836,50 +1776,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Thứ 2
-23/02</t>
+02/03</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Thứ 3
-24/02</t>
+03/03</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Thứ 4
-25/02</t>
+04/03</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thứ 5
-26/02</t>
+05/03</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Thứ 6
-27/02</t>
+06/03</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Thứ 7
-28/02</t>
+07/03</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Chủ Nhật
-01/03</t>
+08/03</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1892,21 +1832,25 @@
       </c>
       <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -1916,31 +1860,24 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH1
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1951,30 +1888,26 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT4
+GV: GV005</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -1982,12 +1915,12 @@
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
 Phòng: LT2
-GV: GV005</t>
+GV: GV003</t>
         </is>
       </c>
       <c r="G11" s="7" t="n"/>
@@ -1995,109 +1928,25 @@
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2141,7 +1990,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>THỜI KHÓA BIỂU TUẦN 14</t>
+          <t>THỜI KHÓA BIỂU TUẦN 15</t>
         </is>
       </c>
     </row>
@@ -2164,50 +2013,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Thứ 2
-02/03</t>
+09/03</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Thứ 3
-03/03</t>
+10/03</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Thứ 4
-04/03</t>
+11/03</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thứ 5
-05/03</t>
+12/03</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Thứ 6
-06/03</t>
+13/03</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Thứ 7
-07/03</t>
+14/03</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Chủ Nhật
-08/03</t>
+15/03</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2220,21 +2069,25 @@
       </c>
       <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -2244,31 +2097,24 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH1
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2279,30 +2125,26 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT4
+GV: GV005</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -2310,12 +2152,12 @@
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
 Phòng: LT2
-GV: GV005</t>
+GV: GV003</t>
         </is>
       </c>
       <c r="G11" s="7" t="n"/>
@@ -2323,424 +2165,12 @@
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A5:G5"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM CÔNG NGHỆ PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu III, Đại học Cần Thơ - 01 Lý Tự Trọng, TP. Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>THỜI KHÓA BIỂU TUẦN 15</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Slot Thời Gian</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Lớp</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>SL SV</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Thứ 2
-09/03</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Thứ 3
-10/03</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Thứ 4
-11/03</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thứ 5
-12/03</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Thứ 6
-13/03</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Thứ 7
-14/03</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Chủ Nhật
-15/03</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="7" t="n"/>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH1
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
-      <c r="J10" s="7" t="n"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="n"/>
-      <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2874,16 +2304,16 @@
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
@@ -2892,27 +2322,27 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>MH012
-(Thực hành)
-Phòng: LT2
-GV: GV005</t>
-        </is>
-      </c>
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
@@ -2921,7 +2351,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2933,15 +2363,15 @@
         <v>30</v>
       </c>
       <c r="D10" s="7" t="n"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="n"/>
+(Lý thuyết)
+Phòng: LT2
+GV: GV003</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="n"/>
@@ -2964,7 +2394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3079,13 +2509,20 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Thực hành)
+Phòng: TH1
+GV: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
@@ -3093,18 +2530,22 @@
       <c r="I8" s="7" t="n"/>
       <c r="J8" s="8" t="inlineStr">
         <is>
-          <t>MH011
+          <t>MH012
 (Thực hành)
-Phòng: TH2
+Phòng: TH3
 GV: GV005</t>
         </is>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -3112,49 +2553,42 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH1
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
@@ -3175,30 +2609,33 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>MH012
 (Thực hành)
-Phòng: LT2
-GV: GV005</t>
-        </is>
-      </c>
+Phòng: TH1
+GV: GV005</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT4
+GV: GV005</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
@@ -3206,80 +2643,54 @@
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT2
+GV: GV003</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH012
+      <c r="H12" s="7" t="n"/>
+      <c r="I12" s="7" t="n"/>
+      <c r="J12" s="7" t="n"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>MH011
 (Thực hành)
 Phòng: TH3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
+GV: GV003</t>
+        </is>
+      </c>
       <c r="I13" s="7" t="n"/>
       <c r="J13" s="7" t="n"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3292,7 +2703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3407,13 +2818,20 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Thực hành)
+Phòng: TH1
+GV: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
@@ -3421,18 +2839,22 @@
       <c r="I8" s="7" t="n"/>
       <c r="J8" s="8" t="inlineStr">
         <is>
-          <t>MH011
+          <t>MH012
 (Thực hành)
-Phòng: TH2
+Phòng: TH3
 GV: GV005</t>
         </is>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -3440,49 +2862,42 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH1
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
@@ -3503,30 +2918,33 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>MH012
 (Thực hành)
-Phòng: LT2
-GV: GV005</t>
-        </is>
-      </c>
+Phòng: TH1
+GV: GV005</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT4
+GV: GV005</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
@@ -3534,80 +2952,54 @@
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT2
+GV: GV003</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH012
+      <c r="H12" s="7" t="n"/>
+      <c r="I12" s="7" t="n"/>
+      <c r="J12" s="7" t="n"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>MH011
 (Thực hành)
 Phòng: TH3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
+GV: GV003</t>
+        </is>
+      </c>
       <c r="I13" s="7" t="n"/>
       <c r="J13" s="7" t="n"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3620,7 +3012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3735,32 +3127,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Thực hành)
+Phòng: TH1
+GV: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -3768,49 +3164,42 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH1
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
@@ -3831,30 +3220,33 @@
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>MH012
 (Thực hành)
-Phòng: LT2
-GV: GV005</t>
-        </is>
-      </c>
+Phòng: TH1
+GV: GV005</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT4
+GV: GV005</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
@@ -3862,80 +3254,54 @@
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT2
+GV: GV003</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH012
+      <c r="H12" s="7" t="n"/>
+      <c r="I12" s="7" t="n"/>
+      <c r="J12" s="7" t="n"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>MH011
 (Thực hành)
 Phòng: TH3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
+GV: GV003</t>
+        </is>
+      </c>
       <c r="I13" s="7" t="n"/>
       <c r="J13" s="7" t="n"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3948,7 +3314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4063,32 +3429,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Thực hành)
+Phòng: TH1
+GV: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -4096,49 +3466,42 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH1
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
@@ -4161,28 +3524,24 @@
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT4
+GV: GV005</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
@@ -4190,80 +3549,54 @@
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT2
+GV: GV003</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH012
+      <c r="H12" s="7" t="n"/>
+      <c r="I12" s="7" t="n"/>
+      <c r="J12" s="7" t="n"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>MH011
 (Thực hành)
 Phòng: TH3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
+GV: GV003</t>
+        </is>
+      </c>
       <c r="I13" s="7" t="n"/>
       <c r="J13" s="7" t="n"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4276,7 +3609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4391,32 +3724,36 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH011
+(Thực hành)
+Phòng: TH1
+GV: GV003</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -4424,49 +3761,42 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH1
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
@@ -4489,28 +3819,24 @@
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="n"/>
-      <c r="I11" s="7" t="n"/>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT4
+GV: GV005</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
@@ -4518,80 +3844,25 @@
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT2
+GV: GV003</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH3
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="n"/>
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4604,7 +3875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4714,7 +3985,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4727,21 +3998,25 @@
       </c>
       <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -4751,31 +4026,24 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH1
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -4786,30 +4054,26 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT4
+GV: GV005</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -4817,12 +4081,12 @@
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
 Phòng: LT2
-GV: GV005</t>
+GV: GV003</t>
         </is>
       </c>
       <c r="G11" s="7" t="n"/>
@@ -4830,96 +4094,12 @@
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4932,7 +4112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5042,7 +4222,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -5055,21 +4235,25 @@
       </c>
       <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -5079,31 +4263,24 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH1
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -5114,30 +4291,26 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT4
+GV: GV005</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -5145,12 +4318,12 @@
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
 Phòng: LT2
-GV: GV005</t>
+GV: GV003</t>
         </is>
       </c>
       <c r="G11" s="7" t="n"/>
@@ -5158,96 +4331,12 @@
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5260,7 +4349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5370,7 +4459,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -5383,21 +4472,25 @@
       </c>
       <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -5407,31 +4500,24 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>MH012
+(Lý thuyết)
+Phòng: LT1
+GV: GV005</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH1
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -5442,30 +4528,26 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: LT3
-GV: GV003</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
+      <c r="I10" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
+Phòng: LT4
+GV: GV005</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A11" s="10" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -5473,12 +4555,12 @@
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>MH011
+(Lý thuyết)
 Phòng: LT2
-GV: GV005</t>
+GV: GV003</t>
         </is>
       </c>
       <c r="G11" s="7" t="n"/>
@@ -5486,96 +4568,12 @@
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="7" t="n"/>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: TH3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH011
-(Thực hành)
-Phòng: TH2
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
-      <c r="J13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-      <c r="H14" s="8" t="inlineStr">
-        <is>
-          <t>MH012
-(Thực hành)
-Phòng: LT3
-GV: GV005</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="n"/>
-      <c r="J14" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
